--- a/biology/Médecine/Duncan_MacGregor/Duncan_MacGregor.xlsx
+++ b/biology/Médecine/Duncan_MacGregor/Duncan_MacGregor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duncan MacGregor (14 décembre 1843 - 16 décembre 1906) est un médecin et universitaire néo-zélandais et un administrateur de la santé.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duncan MacGregor naît à Aberfeldy, dans le Perthshire, en Écosse, fils de James et Isabella MacGregor[1]. Il épouse Mary Johnston à York Place, Édimbourg, en décembre 1870[1].
-Duncan MacGregor est nommé professeur de sciences mentales à l'université d'Otago, en Nouvelle-Zélande, poste qu'il occupe de 1870 à 1886. De 1876 à 1882, il est médecin de l'asile d'aliénés de Dunedin et, en avril 1886, il a été nommé inspecteur général des asiles et des hôpitaux de Nouvelle-Zélande[1]. Il meurt à son domicile de Northland, Wellington, le 16 décembre 1906[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duncan MacGregor naît à Aberfeldy, dans le Perthshire, en Écosse, fils de James et Isabella MacGregor. Il épouse Mary Johnston à York Place, Édimbourg, en décembre 1870.
+Duncan MacGregor est nommé professeur de sciences mentales à l'université d'Otago, en Nouvelle-Zélande, poste qu'il occupe de 1870 à 1886. De 1876 à 1882, il est médecin de l'asile d'aliénés de Dunedin et, en avril 1886, il a été nommé inspecteur général des asiles et des hôpitaux de Nouvelle-Zélande. Il meurt à son domicile de Northland, Wellington, le 16 décembre 1906.
 </t>
         </is>
       </c>
